--- a/Enforcement Tracker info/UK_metadata.xlsx
+++ b/Enforcement Tracker info/UK_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annguyen\Desktop\School\IBS-Capstone-Project\Enforcement Tracker info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB59261-CB93-451C-8EAF-88809C4A23C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0744E82-82B3-408E-8BC9-0A301E0A7E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7434A36A-A420-497C-B0FB-13D5CD05C85E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15839C18-491B-46D5-9300-43BBDAC17C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
+  <si>
+    <t>ETid-2899</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>Information Commissioner (ICO)</t>
+  </si>
+  <si>
+    <t>CAPITA PENSION SOLUTIONS LIMITED</t>
+  </si>
+  <si>
+    <t>Industry and Commerce</t>
+  </si>
+  <si>
+    <t>Art. 32 (1), (2) UK GDPR</t>
+  </si>
+  <si>
+    <t>Insufficient technical and organisational measures to ensure information security</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 6,000,000 (EUR 6,880,000) on CAPITA PENSION SOLUTIONS LIMITED. CAPITA PENSION SOLUTIONS LIMITED acts as the data processor for the CAPITA Group, which has suffered a cyber attack. The processor failed to implement adeqaute technical and organisational measures to ensure data security and also failed to adequatly react to the incident.</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2899 (Copy: ) | Short URL: https://etid.link/ETid-2899</t>
+  </si>
+  <si>
+    <t>ETid-2898</t>
+  </si>
+  <si>
+    <t>CAPITA PLC</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f) UK GDPR, Art. 32 (1), (2) UK GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 8,000,000 (EUR 9,180,000) on CAPITA PLC. CAPITA PLC acts as the data controller for the CAPITA Group, which has suffered a cyber attack. The controller failed to implement adeqaute technical and organisational measures to ensure data security and also failed to adequatly react to the incident.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2898 (Copy: ) | Short URL: https://etid.link/ETid-2898</t>
+  </si>
+  <si>
+    <t>ETid-2885</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>Public Sector and Education</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Insufficient legal basis for data processing</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 200 (EUR 230) on a police officer. The controller forwarded sensitive and restricted personal data that he had obtained in the course of his work to his personal email address.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2885 (Copy: ) | Short URL: https://etid.link/ETid-2885</t>
+  </si>
+  <si>
+    <t>ETid-2766</t>
+  </si>
+  <si>
+    <t>Birthlink</t>
+  </si>
+  <si>
+    <t>Individuals and Private Associations</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f), (2) GDPR, Art. 32 (1), (2) GDPR, Art. 33 GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 18,000 (EUR 20,725) on Birthlink. The controller, a scottish registered charity, failed to implement sufficient technical and organisational measures to ensure data security, resulting in the loss of irreplaceable personal records.</t>
+  </si>
+  <si>
+    <t>link   link</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2766 (Copy: ) | Short URL: https://etid.link/ETid-2766</t>
+  </si>
+  <si>
+    <t>ETid-2656</t>
+  </si>
+  <si>
+    <t>23andMe, Inc.</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f) GDPR, Art. 32 GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA imposed a fine of £ 2,310,000 (EUR 2,700,000) on 23andMe, Inc. The controller, a company offering DNA testing to private individuals, failed to implement sufficient technical and organizational measures to ensure data security, especially in regards to the sensitivity of the processed data. As a result, a cyberattack occurred, which led to a data breach affecting 155,592 UK-based users over the course of at least five months. The DPA considered the controller's failure to identify the attack earlier and its failure to adequately inform the DPA about the breach as aggravating factors.</t>
+  </si>
+  <si>
+    <t>link link</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2656 (Copy: ) | Short URL: https://etid.link/ETid-2656</t>
+  </si>
   <si>
     <t>ETid-2566</t>
   </si>
   <si>
-    <t>UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>Information Commissioner (ICO)</t>
-  </si>
-  <si>
     <t>DPP Law Ltd.</t>
   </si>
   <si>
@@ -54,9 +156,6 @@
   </si>
   <si>
     <t>Art. 5 (1) f) GDPR, Art. 32 (1), (2) GDPR, Art. 33 (1) GDPR</t>
-  </si>
-  <si>
-    <t>Insufficient technical and organisational measures to ensure information security</t>
   </si>
   <si>
     <t>The UK DPA (ICO) has imposed a fine of £ 60,000 (EUR 70,300) on the law firm DPP Law Ltd. The controller had suffered a cyber attack during which personal data of 791 clients and expert witnesses were exfiltrated and published on the dark web.
@@ -64,9 +163,6 @@
 The controller also breached Art. 33 (1) UK GDPR by failing to notify the DPA within 72 hours, reporting the incident only 43 days later.</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>https://www.enforcementtracker.com/ETid-2566 (Copy: ) | Short URL: https://etid.link/ETid-2566</t>
   </si>
   <si>
@@ -76,18 +172,12 @@
     <t>Advanced Computer Software Group Ltd</t>
   </si>
   <si>
-    <t>Health Care</t>
-  </si>
-  <si>
     <t>Art. 32 (1) GDPR</t>
   </si>
   <si>
     <t>The UK DPA (ICO) has fined Advanced Computer Software Group Ltd £3.07 million (EUR 3.5 million) for insufficient IT security (infringiment of Art. 32 (1) UK GDPR). The controller failed to implement appropriate technical and organisational measures to protect personal data. A ransomware attack in August 2022 allowed hackers to access systems of a health subsidiary via a customer account that lacked multi-factor authentication. As a result, the personal data of 79,404 individuals was put at risk.</t>
   </si>
   <si>
-    <t>link link</t>
-  </si>
-  <si>
     <t>https://www.enforcementtracker.com/ETid-2561 (Copy: ) | Short URL: https://etid.link/ETid-2561</t>
   </si>
   <si>
@@ -97,9 +187,6 @@
     <t>Police Service of Northern Ireland</t>
   </si>
   <si>
-    <t>Public Sector and Education</t>
-  </si>
-  <si>
     <t>Art. 5 (1) f) GDPR, Art. 32 (1), (2) GDPR</t>
   </si>
   <si>
@@ -115,9 +202,6 @@
     <t>Central Young Men’s Christian Association</t>
   </si>
   <si>
-    <t>Individuals and Private Associations</t>
-  </si>
-  <si>
     <t>The UK DPA (ICO) has fined the Central Young Men’s Christian Association EUR 8,700. The controller had sent an email to individuals participating in a program for individuals suffering from HIV without using the blind copy option, which made the email addresses of all recipients known to other recipients. 166 individuals could be identified or potentially identified based on their email addresses. From this it could be concluded that these people were probably living with HIV.</t>
   </si>
   <si>
@@ -128,9 +212,6 @@
   </si>
   <si>
     <t>UK Ministry of Defense</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>The UK DPA has fined the Ministry of Defense EUR 400,000 for disclosing personal data of individuals who were to be relocated to the UK after the Taliban took control of Afghanistan in 2021. The Ministry of Defense had sent an email to a distribution list of Afghan nationals who were eligible for evacuation without hiding the e-mail adresses and thus revealing the personal e-mail addresses and personal data of the recipients to the other e-mail recipients. The ICO stated that if the data had fallen into the hands of the Taliban, it could have led to a threat to lives.</t>
@@ -165,12 +246,6 @@
   </si>
   <si>
     <t>Interserve Group Limited</t>
-  </si>
-  <si>
-    <t>Industry and Commerce</t>
-  </si>
-  <si>
-    <t>Art. 5 (1) f) GDPR, Art. 32 GDPR</t>
   </si>
   <si>
     <t>The British DPA has fined the construction group Interserve Group Limited EUR 5,033,000. The controller had notified the DPA of a data breach pursuant to Art. 33 GDPR. 
@@ -190,9 +265,6 @@
   </si>
   <si>
     <t>Art. 5 (1) a) GDPR, Art. 6 GDPR, Art. 9 GDPR, Art. 13 (1) c) GDPR, Regulation 21 PECR</t>
-  </si>
-  <si>
-    <t>Insufficient legal basis for data processing</t>
   </si>
   <si>
     <t>The UK DPA has imposed a fine of EUR 1,547,000 on Easylife Ltd. Easylife is a retailer that sells household items as well as services and products under its health, motor, supercard and garden clubs.
@@ -332,7 +404,7 @@
     <t>Marriott International, Inc</t>
   </si>
   <si>
-    <t>Accomodation and Hospitalty</t>
+    <t>Accomodation and Hospitality</t>
   </si>
   <si>
     <t>Original Summary: The ICO issued a notice of its intention to fine Marriott International Inc due to a cyber incident which was notified to the ICO by Marriott in November 2018. A variety of personal data contained in approximately 339 million guest records globally were exposed by the incident, of which around 30 million related to residents of 31 countries in the European Economic Area (EEA). Seven million related to UK residents.
@@ -365,6 +437,9 @@
     <t>Country</t>
   </si>
   <si>
+    <t>Authority</t>
+  </si>
+  <si>
     <t>Date of Decision</t>
   </si>
   <si>
@@ -374,16 +449,13 @@
     <t>Controller/Processor</t>
   </si>
   <si>
+    <t>Sector</t>
+  </si>
+  <si>
     <t>Quoted Art.</t>
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Authority</t>
-  </si>
-  <si>
-    <t>Sector</t>
   </si>
   <si>
     <t>Summary</t>
@@ -429,12 +501,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -770,68 +844,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E1DB2-2FF1-408C-9C82-AC9D89BE424E}">
-  <dimension ref="B1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD652F5-DB19-4678-92E8-B33714DAD3BA}">
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="119" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="126" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="86.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -842,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>45761</v>
-      </c>
-      <c r="F2" s="4">
-        <v>70300</v>
+        <v>45945</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6880000</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -856,10 +930,10 @@
       <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" t="s">
@@ -869,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -880,188 +954,188 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>45742</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3500000</v>
+        <v>45945</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9180000</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45873</v>
+      </c>
+      <c r="F4">
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45832</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20725</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45561</v>
-      </c>
-      <c r="F4" s="4">
-        <v>904000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2700000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45412</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8700</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45761</v>
+      </c>
+      <c r="F7" s="2">
+        <v>70300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45273</v>
-      </c>
-      <c r="F6" s="4">
-        <v>400000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45020</v>
-      </c>
-      <c r="F7" s="4">
-        <v>14500000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
         <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1070,36 +1144,36 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>44853</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5033000</v>
+        <v>45742</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3500000</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>44</v>
+      <c r="K8" t="s">
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1108,34 +1182,34 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>44838</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1547000</v>
+        <v>45561</v>
+      </c>
+      <c r="F9" s="2">
+        <v>904000</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -1146,34 +1220,34 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>44721</v>
-      </c>
-      <c r="F10" s="4">
-        <v>91000</v>
+        <v>45412</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8700</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>56</v>
       </c>
@@ -1184,74 +1258,74 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>44699</v>
-      </c>
-      <c r="F11" s="4">
-        <v>9000000</v>
+        <v>45273</v>
+      </c>
+      <c r="F11" s="2">
+        <v>400000</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="12" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45020</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14500000</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44630</v>
-      </c>
-      <c r="F12" s="4">
-        <v>115000</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>37</v>
+      <c r="J12" t="s">
+        <v>64</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1260,112 +1334,112 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>44525</v>
-      </c>
-      <c r="F13" s="4">
-        <v>585000</v>
+        <v>44853</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5033000</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44838</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1547000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44721</v>
+      </c>
+      <c r="F15" s="2">
+        <v>91000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44487</v>
-      </c>
-      <c r="F14" s="4">
-        <v>11800</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44382</v>
-      </c>
-      <c r="F15" s="4">
-        <v>29000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1374,36 +1448,36 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>44148</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1405000</v>
+        <v>44699</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9000000</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1412,36 +1486,36 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>43816</v>
-      </c>
-      <c r="F17" s="4">
-        <v>320000</v>
+        <v>44630</v>
+      </c>
+      <c r="F17" s="2">
+        <v>115000</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
       </c>
       <c r="L17" t="s">
         <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1450,72 +1524,263 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
+        <v>44525</v>
+      </c>
+      <c r="F18" s="2">
+        <v>585000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44487</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11800</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44382</v>
+      </c>
+      <c r="F20" s="2">
+        <v>29000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44148</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1405000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43816</v>
+      </c>
+      <c r="F22" s="2">
+        <v>320000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
         <v>44134</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F23" s="2">
         <v>20450000</v>
       </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="K23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="M23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>44120</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F24" s="2">
         <v>22046000</v>
       </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" t="s">
         <v>8</v>
       </c>
-      <c r="M19" t="s">
-        <v>96</v>
+      <c r="M24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>